--- a/data_year/zb/国民经济核算/国际收支平衡表/差额(贷-借)/储备资产差额(贷-借).xlsx
+++ b/data_year/zb/国民经济核算/国际收支平衡表/差额(贷-借)/储备资产差额(贷-借).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,498 +468,290 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-1089840</v>
+        <v>-46955634</v>
       </c>
       <c r="D2" t="n">
-        <v>-5700</v>
+        <v>-10710.3177216</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>40700</v>
+        <v>-207558.403384</v>
       </c>
       <c r="G2" t="n">
-        <v>-1054840</v>
+        <v>-47173902.7211056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-4659104</v>
+        <v>-38481758</v>
       </c>
       <c r="D3" t="n">
-        <v>-5183.047873428</v>
+        <v>46518.2143326829</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-68225.92439946601</v>
+        <v>-344905.375589135</v>
       </c>
       <c r="G3" t="n">
-        <v>-4732512.97227289</v>
+        <v>-38780145.1612565</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-7424215</v>
+        <v>-9867285</v>
       </c>
       <c r="D4" t="n">
-        <v>-14316.952126572</v>
+        <v>50534.8062829999</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-112174.075600534</v>
+        <v>161593.241884</v>
       </c>
       <c r="G4" t="n">
-        <v>-7550706.02772711</v>
+        <v>-9655156.951833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-10596930.6</v>
+        <v>-43269605</v>
       </c>
       <c r="D5" t="n">
-        <v>-9000</v>
+        <v>20292.301198</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-8900</v>
+        <v>111370.00259</v>
       </c>
       <c r="G5" t="n">
-        <v>-10614830.6</v>
+        <v>-43137942.696212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>-19037700</v>
+        <v>-11881792</v>
       </c>
       <c r="D6" t="n">
-        <v>-16100</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
+        <v>6066.28279973308</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>47799.9999999999</v>
+        <v>97713.535576813</v>
       </c>
       <c r="G6" t="n">
-        <v>-19006000</v>
+        <v>-11778012.1816234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>-25257289.7</v>
+        <v>34231587</v>
       </c>
       <c r="D7" t="n">
-        <v>-500.000000000007</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
+        <v>-28748.8843157862</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>192900</v>
+        <v>91085.5086458139</v>
       </c>
       <c r="G7" t="n">
-        <v>-25064889.7</v>
+        <v>34293923.62433</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>-28526743.6</v>
+        <v>44868055</v>
       </c>
       <c r="D8" t="n">
-        <v>18088</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
+        <v>32624.404072634</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>31009</v>
+        <v>-534219.863085421</v>
       </c>
       <c r="G8" t="n">
-        <v>-28477646.6</v>
+        <v>44366459.5409872</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>-46086510</v>
+        <v>-9296678</v>
       </c>
       <c r="D9" t="n">
-        <v>-7886.87975</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
+        <v>-73936.0149133106</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>23976.64475</v>
+        <v>219039.688892768</v>
       </c>
       <c r="G9" t="n">
-        <v>-46070420.235</v>
+        <v>-9151574.326020541</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>-47834166</v>
+        <v>-1818705</v>
       </c>
       <c r="D10" t="n">
-        <v>-711.40218</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
+        <v>3275.96981991716</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-119031.46182</v>
+        <v>-73282.0115875678</v>
       </c>
       <c r="G10" t="n">
-        <v>-47953908.864</v>
+        <v>-1888711.04176765</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>-38205148</v>
+        <v>1979722</v>
       </c>
       <c r="D11" t="n">
-        <v>-1109241.00716</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-487562.614773669</v>
-      </c>
+        <v>-49572.6584341745</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>-232434.76385</v>
+        <v>-1064.56800464985</v>
       </c>
       <c r="G11" t="n">
-        <v>-40034386.3857837</v>
+        <v>1929084.77356118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>-46955634</v>
+        <v>-2616014</v>
       </c>
       <c r="D12" t="n">
-        <v>-10710.3177216</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
+        <v>-36891.2</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>-207558.403384</v>
+        <v>-232144.5</v>
       </c>
       <c r="G12" t="n">
-        <v>-47173902.7211056</v>
+        <v>-2885049.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>-38481758</v>
+        <v>-14673222.9</v>
       </c>
       <c r="D13" t="n">
-        <v>46518.2143326829</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
+        <v>-4157008.8</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>-344905.375589135</v>
+        <v>7644.50000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-38780145.1612565</v>
+        <v>-18822598.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>-9867285</v>
+        <v>-9819167</v>
       </c>
       <c r="D14" t="n">
-        <v>50534.8062829999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
+        <v>190600</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>161593.241884</v>
+        <v>-15000</v>
       </c>
       <c r="G14" t="n">
-        <v>-9655156.951833</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-43269605</v>
-      </c>
-      <c r="D15" t="n">
-        <v>20292.301198</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>111370.00259</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-43137942.696212</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>-11881792</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6066.28279973308</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>97713.535576813</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-11778012.1816234</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>34231587</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-28748.8843157862</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>91085.5086458139</v>
-      </c>
-      <c r="G17" t="n">
-        <v>34293923.62433</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>44868055</v>
-      </c>
-      <c r="D18" t="n">
-        <v>32624.404072634</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>-534219.863085421</v>
-      </c>
-      <c r="G18" t="n">
-        <v>44366459.5409872</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>-9296678</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-73936.0149133106</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>219039.688892768</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-9151574.326020541</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>-1818705</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3275.96981991716</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>-73282.0115875678</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-1888711.04176765</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>1979722</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-49572.6584341745</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>-1064.56800464985</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1929084.77356118</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>-2618673</v>
-      </c>
-      <c r="D22" t="n">
-        <v>8791.19939520634</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>-190705.95171635</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-2800587.75232114</v>
+        <v>-9996071</v>
       </c>
     </row>
   </sheetData>
